--- a/biology/Botanique/Irvingiaceae/Irvingiaceae.xlsx
+++ b/biology/Botanique/Irvingiaceae/Irvingiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Irvingiaceae (les Irvingiacées) est une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 10 espèces réparties en 3 genres.
 Ce sont des arbres, à feuilles alternes oblongues, des régions tropicales d'Afrique et d'Asie du Sud-Est.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Irvingia donné en hommage à Edward Irving (en) (1816–1855) chirurgien britannique qui officia dans la Royal Navy et collectionneur de plantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Irvingia donné en hommage à Edward Irving (en) (1816–1855) chirurgien britannique qui officia dans la Royal Navy et collectionneur de plantes.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification classique de Cronquist (1981)[2] cette famille n'existe pas ; ses genres et espèces font partie des Simaroubacées et dans l'ordre des Sapindales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification classique de Cronquist (1981) cette famille n'existe pas ; ses genres et espèces font partie des Simaroubacées et dans l'ordre des Sapindales.
 La classification phylogénétique la situe dans l'ordre des Malpighiales.
-La classification phylogénétique APG IV (2016)[3] transfert dans cette famille le genre Allantospermum, auparavant classé dans les Ixonanthaceae.
+La classification phylogénétique APG IV (2016) transfert dans cette famille le genre Allantospermum, auparavant classé dans les Ixonanthaceae.
 </t>
         </is>
       </c>
@@ -577,13 +593,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016) :
 genre Allantospermum (en) Forman
 genre Irvingia Hook.f.
 genre Klainedoxa (en) Pierre ex Engl.
-Selon NCBI  (11 décembre 2016)[5] et DELTA Angio           (11 décembre 2016)[6] :
+Selon NCBI  (11 décembre 2016) et DELTA Angio           (11 décembre 2016) :
 genre Desbordesia Pierre ex Tiegh.
 genre Irvingia Hook.f.
 genre Klainedoxa Pierre ex Engl.</t>
@@ -614,12 +632,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) :
 genre Desbordesia
 Desbordesia glaucescens
-genre Irvingia[8]
+genre Irvingia
 Irvingia excelsa - Afrique centrale
 Irvingia gabonensis / Irvingia wombolu - Afrique ouest et centrale
 Irvingia grandifolia - Afrique centrale
